--- a/1º_ano/bd_ama.xlsx
+++ b/1º_ano/bd_ama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\1º_ano\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6555E84-7341-4319-8717-4A70CB2AB464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47287F-4AD7-419A-B1C6-0BBF08DAFC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="_Alfabetização 1° ano - Maracan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'_Alfabetização 1° ano - Maracan'!$B$1:$E$645</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'_Alfabetização 1° ano - Maracan'!$B$1:$E$660</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="81">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>FRANCISCO OSCAR RODRIGUES PROF EMEIEF</t>
-  </si>
-  <si>
-    <t>JOAO MAGALHÃES DE OLIVEIRA EMEIEF</t>
   </si>
   <si>
     <t>CARLOS DRUMMOND DE ANDRADE EMEIEF</t>
@@ -133,9 +130,6 @@
   </si>
   <si>
     <t>MANOEL MOREIRA LIMA EMEIEF</t>
-  </si>
-  <si>
-    <t>JOAQUIM AGUIAR EMEIEF</t>
   </si>
   <si>
     <t>CENTRO INTEGRADO DE EDUCAÇÃO</t>
@@ -487,7 +481,7 @@
   <dimension ref="B1:E660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C331" sqref="C331:C660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -499,16 +493,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -516,7 +510,7 @@
         <v>23081171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>2018</v>
@@ -530,7 +524,7 @@
         <v>23081171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>2010</v>
@@ -544,7 +538,7 @@
         <v>23081171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>2016</v>
@@ -558,7 +552,7 @@
         <v>23081171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>2013</v>
@@ -572,7 +566,7 @@
         <v>23081171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>2009</v>
@@ -586,7 +580,7 @@
         <v>23081171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>2024</v>
@@ -600,7 +594,7 @@
         <v>23081171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>2008</v>
@@ -614,7 +608,7 @@
         <v>23081171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>2015</v>
@@ -628,7 +622,7 @@
         <v>23081171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>2017</v>
@@ -642,7 +636,7 @@
         <v>23081171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>2014</v>
@@ -656,7 +650,7 @@
         <v>23081171</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>2022</v>
@@ -670,7 +664,7 @@
         <v>23081171</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>2023</v>
@@ -684,7 +678,7 @@
         <v>23270926</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>2010</v>
@@ -698,7 +692,7 @@
         <v>23270926</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>2009</v>
@@ -712,7 +706,7 @@
         <v>23270926</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>2013</v>
@@ -726,7 +720,7 @@
         <v>23270926</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>2014</v>
@@ -740,7 +734,7 @@
         <v>23270926</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>2008</v>
@@ -754,7 +748,7 @@
         <v>23197234</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>2013</v>
@@ -768,7 +762,7 @@
         <v>23197234</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1">
         <v>2014</v>
@@ -782,7 +776,7 @@
         <v>23197234</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>2008</v>
@@ -796,7 +790,7 @@
         <v>23081716</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>2024</v>
@@ -810,7 +804,7 @@
         <v>23081716</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>2018</v>
@@ -824,7 +818,7 @@
         <v>23081716</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>2019</v>
@@ -838,7 +832,7 @@
         <v>23081716</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
         <v>2017</v>
@@ -852,7 +846,7 @@
         <v>23081716</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>2022</v>
@@ -866,7 +860,7 @@
         <v>23081716</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>2009</v>
@@ -880,7 +874,7 @@
         <v>23081716</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>2013</v>
@@ -894,7 +888,7 @@
         <v>23081716</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>2023</v>
@@ -908,7 +902,7 @@
         <v>23081716</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>2008</v>
@@ -922,7 +916,7 @@
         <v>23081716</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
         <v>2014</v>
@@ -936,7 +930,7 @@
         <v>23549009</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
         <v>2023</v>
@@ -950,7 +944,7 @@
         <v>23549009</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1">
         <v>2022</v>
@@ -964,7 +958,7 @@
         <v>23081732</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1">
         <v>2018</v>
@@ -978,7 +972,7 @@
         <v>23081732</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1">
         <v>2019</v>
@@ -992,7 +986,7 @@
         <v>23081732</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1">
         <v>2016</v>
@@ -1006,7 +1000,7 @@
         <v>23081732</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1">
         <v>2017</v>
@@ -1020,7 +1014,7 @@
         <v>23081732</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1">
         <v>2022</v>
@@ -1034,7 +1028,7 @@
         <v>23081732</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1">
         <v>2023</v>
@@ -1048,7 +1042,7 @@
         <v>23081732</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1">
         <v>2015</v>
@@ -1062,7 +1056,7 @@
         <v>23081732</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1">
         <v>2024</v>
@@ -1076,7 +1070,7 @@
         <v>23079622</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
         <v>2019</v>
@@ -1090,7 +1084,7 @@
         <v>23079622</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
         <v>2018</v>
@@ -1104,7 +1098,7 @@
         <v>23079622</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1">
         <v>2022</v>
@@ -1118,7 +1112,7 @@
         <v>23079622</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
         <v>2024</v>
@@ -1132,7 +1126,7 @@
         <v>23079622</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
         <v>2023</v>
@@ -1146,7 +1140,7 @@
         <v>23079622</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1">
         <v>2009</v>
@@ -1160,7 +1154,7 @@
         <v>23079622</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1">
         <v>2013</v>
@@ -1174,7 +1168,7 @@
         <v>23079622</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>2017</v>
@@ -1188,7 +1182,7 @@
         <v>23079622</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
         <v>2014</v>
@@ -1202,7 +1196,7 @@
         <v>23079622</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
         <v>2015</v>
@@ -1216,7 +1210,7 @@
         <v>23177640</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1">
         <v>2016</v>
@@ -1230,7 +1224,7 @@
         <v>23177640</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1">
         <v>2023</v>
@@ -1244,7 +1238,7 @@
         <v>23177640</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1">
         <v>2019</v>
@@ -1258,7 +1252,7 @@
         <v>23177640</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1">
         <v>2017</v>
@@ -1272,7 +1266,7 @@
         <v>23177640</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
         <v>2018</v>
@@ -1286,7 +1280,7 @@
         <v>23177640</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="1">
         <v>2022</v>
@@ -1300,7 +1294,7 @@
         <v>23177640</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="1">
         <v>2013</v>
@@ -1314,7 +1308,7 @@
         <v>23177640</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1">
         <v>2015</v>
@@ -1328,7 +1322,7 @@
         <v>23177640</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1">
         <v>2014</v>
@@ -1342,7 +1336,7 @@
         <v>23177640</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1">
         <v>2024</v>
@@ -1356,7 +1350,7 @@
         <v>23079789</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1">
         <v>2014</v>
@@ -1370,7 +1364,7 @@
         <v>23079789</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1">
         <v>2023</v>
@@ -1384,7 +1378,7 @@
         <v>23079789</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
         <v>2009</v>
@@ -1398,7 +1392,7 @@
         <v>23079789</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1">
         <v>2019</v>
@@ -1412,7 +1406,7 @@
         <v>23079789</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1">
         <v>2018</v>
@@ -1426,7 +1420,7 @@
         <v>23079789</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1">
         <v>2008</v>
@@ -1440,7 +1434,7 @@
         <v>23079789</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1">
         <v>2022</v>
@@ -1454,7 +1448,7 @@
         <v>23079789</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1">
         <v>2024</v>
@@ -1468,7 +1462,7 @@
         <v>23232706</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
         <v>2016</v>
@@ -1482,7 +1476,7 @@
         <v>23232706</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
         <v>2019</v>
@@ -1496,7 +1490,7 @@
         <v>23232706</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
         <v>2018</v>
@@ -1510,7 +1504,7 @@
         <v>23232706</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1">
         <v>2024</v>
@@ -1524,7 +1518,7 @@
         <v>23232706</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
         <v>2017</v>
@@ -1538,7 +1532,7 @@
         <v>23232706</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1">
         <v>2023</v>
@@ -1552,7 +1546,7 @@
         <v>23232706</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1">
         <v>2022</v>
@@ -1566,7 +1560,7 @@
         <v>23232706</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1">
         <v>2009</v>
@@ -1580,7 +1574,7 @@
         <v>23232706</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
         <v>2013</v>
@@ -1594,7 +1588,7 @@
         <v>23232706</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
         <v>2014</v>
@@ -1608,7 +1602,7 @@
         <v>23232706</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1">
         <v>2008</v>
@@ -1622,7 +1616,7 @@
         <v>23232706</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1">
         <v>2015</v>
@@ -1636,7 +1630,7 @@
         <v>23079835</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D82" s="1">
         <v>2024</v>
@@ -1650,7 +1644,7 @@
         <v>23079835</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D83" s="1">
         <v>2018</v>
@@ -1664,7 +1658,7 @@
         <v>23079835</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1">
         <v>2019</v>
@@ -1678,7 +1672,7 @@
         <v>23079835</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D85" s="1">
         <v>2022</v>
@@ -1692,7 +1686,7 @@
         <v>23079835</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D86" s="1">
         <v>2023</v>
@@ -1706,7 +1700,7 @@
         <v>23079835</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D87" s="1">
         <v>2009</v>
@@ -1720,7 +1714,7 @@
         <v>23079835</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D88" s="1">
         <v>2013</v>
@@ -1734,7 +1728,7 @@
         <v>23079835</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D89" s="1">
         <v>2008</v>
@@ -1748,7 +1742,7 @@
         <v>23079835</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D90" s="1">
         <v>2017</v>
@@ -1762,7 +1756,7 @@
         <v>23079835</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D91" s="1">
         <v>2015</v>
@@ -1776,7 +1770,7 @@
         <v>23079835</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1">
         <v>2014</v>
@@ -1790,7 +1784,7 @@
         <v>23177039</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D93" s="1">
         <v>2018</v>
@@ -1804,7 +1798,7 @@
         <v>23177039</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" s="1">
         <v>2019</v>
@@ -1818,7 +1812,7 @@
         <v>23177039</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D95" s="1">
         <v>2017</v>
@@ -1832,7 +1826,7 @@
         <v>23177039</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1">
         <v>2013</v>
@@ -1846,7 +1840,7 @@
         <v>23177039</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1">
         <v>2015</v>
@@ -1860,7 +1854,7 @@
         <v>23177039</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1">
         <v>2014</v>
@@ -1874,7 +1868,7 @@
         <v>23079894</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="1">
         <v>2018</v>
@@ -1888,7 +1882,7 @@
         <v>23079894</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
         <v>2022</v>
@@ -1902,7 +1896,7 @@
         <v>23079894</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="1">
         <v>2008</v>
@@ -1916,7 +1910,7 @@
         <v>23079894</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1">
         <v>2019</v>
@@ -1930,7 +1924,7 @@
         <v>23079894</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>2017</v>
@@ -1944,7 +1938,7 @@
         <v>23079894</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>2009</v>
@@ -1958,7 +1952,7 @@
         <v>23079894</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1">
         <v>2015</v>
@@ -1972,7 +1966,7 @@
         <v>23079894</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
         <v>2013</v>
@@ -1986,7 +1980,7 @@
         <v>23079894</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
         <v>2014</v>
@@ -2000,7 +1994,7 @@
         <v>23079894</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1">
         <v>2024</v>
@@ -2014,7 +2008,7 @@
         <v>23079894</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1">
         <v>2023</v>
@@ -2028,7 +2022,7 @@
         <v>23270977</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D110" s="1">
         <v>2024</v>
@@ -2042,7 +2036,7 @@
         <v>23270977</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D111" s="1">
         <v>2018</v>
@@ -2056,7 +2050,7 @@
         <v>23270977</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D112" s="1">
         <v>2019</v>
@@ -2070,7 +2064,7 @@
         <v>23270977</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D113" s="1">
         <v>2023</v>
@@ -2084,7 +2078,7 @@
         <v>23270977</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D114" s="1">
         <v>2013</v>
@@ -2098,7 +2092,7 @@
         <v>23270977</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D115" s="1">
         <v>2017</v>
@@ -2112,7 +2106,7 @@
         <v>23270977</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D116" s="1">
         <v>2008</v>
@@ -2126,7 +2120,7 @@
         <v>23270977</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D117" s="1">
         <v>2022</v>
@@ -2140,7 +2134,7 @@
         <v>23270977</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1">
         <v>2015</v>
@@ -2154,7 +2148,7 @@
         <v>23270977</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D119" s="1">
         <v>2014</v>
@@ -2168,7 +2162,7 @@
         <v>23197510</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D120" s="1">
         <v>2010</v>
@@ -2182,7 +2176,7 @@
         <v>23197510</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D121" s="1">
         <v>2019</v>
@@ -2196,7 +2190,7 @@
         <v>23197510</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D122" s="1">
         <v>2017</v>
@@ -2210,7 +2204,7 @@
         <v>23197510</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D123" s="1">
         <v>2013</v>
@@ -2224,7 +2218,7 @@
         <v>23197510</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D124" s="1">
         <v>2009</v>
@@ -2238,7 +2232,7 @@
         <v>23197510</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D125" s="1">
         <v>2014</v>
@@ -2252,7 +2246,7 @@
         <v>23197510</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D126" s="1">
         <v>2018</v>
@@ -2266,7 +2260,7 @@
         <v>23197510</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D127" s="1">
         <v>2015</v>
@@ -2280,7 +2274,7 @@
         <v>23197510</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D128" s="1">
         <v>2008</v>
@@ -2294,7 +2288,7 @@
         <v>23197510</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1">
         <v>2023</v>
@@ -2308,7 +2302,7 @@
         <v>23197510</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D130" s="1">
         <v>2022</v>
@@ -2322,7 +2316,7 @@
         <v>23197510</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D131" s="1">
         <v>2024</v>
@@ -2336,7 +2330,7 @@
         <v>23223057</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" s="1">
         <v>2018</v>
@@ -2350,7 +2344,7 @@
         <v>23223057</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D133" s="1">
         <v>2019</v>
@@ -2364,7 +2358,7 @@
         <v>23223057</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D134" s="1">
         <v>2024</v>
@@ -2378,7 +2372,7 @@
         <v>23223057</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D135" s="1">
         <v>2013</v>
@@ -2392,7 +2386,7 @@
         <v>23223057</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" s="1">
         <v>2023</v>
@@ -2406,7 +2400,7 @@
         <v>23223057</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" s="1">
         <v>2009</v>
@@ -2420,7 +2414,7 @@
         <v>23223057</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D138" s="1">
         <v>2017</v>
@@ -2434,7 +2428,7 @@
         <v>23223057</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D139" s="1">
         <v>2022</v>
@@ -2448,7 +2442,7 @@
         <v>23223057</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D140" s="1">
         <v>2008</v>
@@ -2462,7 +2456,7 @@
         <v>23223057</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" s="1">
         <v>2014</v>
@@ -2476,7 +2470,7 @@
         <v>23223057</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D142" s="1">
         <v>2015</v>
@@ -2490,7 +2484,7 @@
         <v>23225351</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D143" s="1">
         <v>2024</v>
@@ -2504,7 +2498,7 @@
         <v>23225351</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D144" s="1">
         <v>2019</v>
@@ -2518,7 +2512,7 @@
         <v>23225351</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D145" s="1">
         <v>2010</v>
@@ -2532,7 +2526,7 @@
         <v>23225351</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D146" s="1">
         <v>2009</v>
@@ -2546,7 +2540,7 @@
         <v>23225351</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D147" s="1">
         <v>2018</v>
@@ -2560,7 +2554,7 @@
         <v>23225351</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D148" s="1">
         <v>2013</v>
@@ -2574,7 +2568,7 @@
         <v>23225351</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D149" s="1">
         <v>2023</v>
@@ -2588,7 +2582,7 @@
         <v>23225351</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D150" s="1">
         <v>2017</v>
@@ -2602,7 +2596,7 @@
         <v>23225351</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D151" s="1">
         <v>2022</v>
@@ -2616,7 +2610,7 @@
         <v>23225351</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D152" s="1">
         <v>2008</v>
@@ -2630,7 +2624,7 @@
         <v>23225351</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D153" s="1">
         <v>2014</v>
@@ -2644,7 +2638,7 @@
         <v>23242671</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D154" s="1">
         <v>2024</v>
@@ -2658,7 +2652,7 @@
         <v>23242671</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D155" s="1">
         <v>2023</v>
@@ -2672,7 +2666,7 @@
         <v>23242671</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D156" s="1">
         <v>2019</v>
@@ -2686,7 +2680,7 @@
         <v>23242671</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D157" s="1">
         <v>2022</v>
@@ -2854,7 +2848,7 @@
         <v>23241322</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D169" s="1">
         <v>2024</v>
@@ -2868,7 +2862,7 @@
         <v>23241322</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D170" s="1">
         <v>2018</v>
@@ -2882,7 +2876,7 @@
         <v>23241322</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D171" s="1">
         <v>2019</v>
@@ -2896,7 +2890,7 @@
         <v>23241322</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D172" s="1">
         <v>2023</v>
@@ -2910,7 +2904,7 @@
         <v>23241322</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D173" s="1">
         <v>2017</v>
@@ -2924,7 +2918,7 @@
         <v>23241322</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D174" s="1">
         <v>2013</v>
@@ -2938,7 +2932,7 @@
         <v>23241322</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D175" s="1">
         <v>2014</v>
@@ -2952,7 +2946,7 @@
         <v>23241322</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D176" s="1">
         <v>2015</v>
@@ -2966,7 +2960,7 @@
         <v>23241322</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D177" s="1">
         <v>2022</v>
@@ -3148,7 +3142,7 @@
         <v>23212454</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190" s="1">
         <v>2019</v>
@@ -3162,7 +3156,7 @@
         <v>23212454</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D191" s="1">
         <v>2017</v>
@@ -3176,7 +3170,7 @@
         <v>23212454</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" s="1">
         <v>2016</v>
@@ -3190,7 +3184,7 @@
         <v>23212454</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D193" s="1">
         <v>2024</v>
@@ -3204,7 +3198,7 @@
         <v>23212454</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D194" s="1">
         <v>2018</v>
@@ -3218,7 +3212,7 @@
         <v>23212454</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D195" s="1">
         <v>2023</v>
@@ -3232,7 +3226,7 @@
         <v>23212454</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D196" s="1">
         <v>2008</v>
@@ -3246,7 +3240,7 @@
         <v>23212454</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D197" s="1">
         <v>2013</v>
@@ -3260,7 +3254,7 @@
         <v>23212454</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D198" s="1">
         <v>2022</v>
@@ -3274,7 +3268,7 @@
         <v>23212454</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D199" s="1">
         <v>2009</v>
@@ -3288,7 +3282,7 @@
         <v>23212454</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D200" s="1">
         <v>2015</v>
@@ -3302,7 +3296,7 @@
         <v>23212454</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D201" s="1">
         <v>2014</v>
@@ -3316,7 +3310,7 @@
         <v>23080256</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D202" s="1">
         <v>2013</v>
@@ -3330,7 +3324,7 @@
         <v>23080256</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D203" s="1">
         <v>2009</v>
@@ -3344,7 +3338,7 @@
         <v>23080256</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D204" s="1">
         <v>2008</v>
@@ -3358,7 +3352,7 @@
         <v>23080256</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D205" s="1">
         <v>2014</v>
@@ -3372,7 +3366,7 @@
         <v>23080256</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D206" s="1">
         <v>2015</v>
@@ -3386,7 +3380,7 @@
         <v>23270900</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D207" s="1">
         <v>2024</v>
@@ -3400,7 +3394,7 @@
         <v>23270900</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D208" s="1">
         <v>2016</v>
@@ -3414,7 +3408,7 @@
         <v>23270900</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D209" s="1">
         <v>2019</v>
@@ -3428,7 +3422,7 @@
         <v>23270900</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D210" s="1">
         <v>2017</v>
@@ -3442,7 +3436,7 @@
         <v>23270900</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D211" s="1">
         <v>2013</v>
@@ -3456,7 +3450,7 @@
         <v>23270900</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D212" s="1">
         <v>2018</v>
@@ -3470,7 +3464,7 @@
         <v>23270900</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D213" s="1">
         <v>2015</v>
@@ -3484,7 +3478,7 @@
         <v>23270900</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D214" s="1">
         <v>2022</v>
@@ -3498,7 +3492,7 @@
         <v>23270900</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D215" s="1">
         <v>2010</v>
@@ -3512,7 +3506,7 @@
         <v>23270900</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D216" s="1">
         <v>2023</v>
@@ -3526,7 +3520,7 @@
         <v>23270900</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D217" s="1">
         <v>2014</v>
@@ -3540,7 +3534,7 @@
         <v>23270900</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D218" s="1">
         <v>2008</v>
@@ -3554,7 +3548,7 @@
         <v>23080299</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D219" s="1">
         <v>2018</v>
@@ -3568,7 +3562,7 @@
         <v>23080299</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D220" s="1">
         <v>2019</v>
@@ -3582,7 +3576,7 @@
         <v>23080299</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D221" s="1">
         <v>2010</v>
@@ -3596,7 +3590,7 @@
         <v>23080299</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D222" s="1">
         <v>2024</v>
@@ -3610,7 +3604,7 @@
         <v>23080299</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D223" s="1">
         <v>2013</v>
@@ -3624,7 +3618,7 @@
         <v>23080299</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D224" s="1">
         <v>2017</v>
@@ -3638,7 +3632,7 @@
         <v>23080299</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D225" s="1">
         <v>2022</v>
@@ -3652,7 +3646,7 @@
         <v>23080299</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D226" s="1">
         <v>2023</v>
@@ -3666,7 +3660,7 @@
         <v>23080299</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D227" s="1">
         <v>2008</v>
@@ -3680,7 +3674,7 @@
         <v>23080299</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D228" s="1">
         <v>2014</v>
@@ -3694,7 +3688,7 @@
         <v>23080299</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D229" s="1">
         <v>2015</v>
@@ -3708,7 +3702,7 @@
         <v>23270985</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D230" s="1">
         <v>2024</v>
@@ -3722,7 +3716,7 @@
         <v>23270985</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D231" s="1">
         <v>2019</v>
@@ -3736,7 +3730,7 @@
         <v>23270985</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D232" s="1">
         <v>2018</v>
@@ -3750,7 +3744,7 @@
         <v>23270985</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D233" s="1">
         <v>2023</v>
@@ -3764,7 +3758,7 @@
         <v>23270985</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" s="1">
         <v>2013</v>
@@ -3778,7 +3772,7 @@
         <v>23270985</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="1">
         <v>2010</v>
@@ -3792,7 +3786,7 @@
         <v>23270985</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" s="1">
         <v>2017</v>
@@ -3806,7 +3800,7 @@
         <v>23270985</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D237" s="1">
         <v>2008</v>
@@ -3820,7 +3814,7 @@
         <v>23270985</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D238" s="1">
         <v>2009</v>
@@ -3834,7 +3828,7 @@
         <v>23270985</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D239" s="1">
         <v>2022</v>
@@ -3848,7 +3842,7 @@
         <v>23270985</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D240" s="1">
         <v>2015</v>
@@ -3862,7 +3856,7 @@
         <v>23270985</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D241" s="1">
         <v>2014</v>
@@ -3876,7 +3870,7 @@
         <v>23080302</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D242" s="1">
         <v>2017</v>
@@ -3890,7 +3884,7 @@
         <v>23080302</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D243" s="1">
         <v>2016</v>
@@ -3904,7 +3898,7 @@
         <v>23080302</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D244" s="1">
         <v>2014</v>
@@ -3918,7 +3912,7 @@
         <v>23080302</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D245" s="1">
         <v>2015</v>
@@ -3932,7 +3926,7 @@
         <v>23080302</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D246" s="1">
         <v>2008</v>
@@ -3946,7 +3940,7 @@
         <v>23080302</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D247" s="1">
         <v>2010</v>
@@ -3960,7 +3954,7 @@
         <v>23080302</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D248" s="1">
         <v>2013</v>
@@ -3974,7 +3968,7 @@
         <v>23080302</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D249" s="1">
         <v>2009</v>
@@ -3985,7 +3979,7 @@
     </row>
     <row r="250" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B250" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
@@ -3999,7 +3993,7 @@
     </row>
     <row r="251" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>4</v>
@@ -4013,7 +4007,7 @@
     </row>
     <row r="252" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B252" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>4</v>
@@ -4027,7 +4021,7 @@
     </row>
     <row r="253" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B253" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>4</v>
@@ -4041,7 +4035,7 @@
     </row>
     <row r="254" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B254" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>4</v>
@@ -4055,7 +4049,7 @@
     </row>
     <row r="255" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
@@ -4069,7 +4063,7 @@
     </row>
     <row r="256" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>4</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="257" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
@@ -4097,7 +4091,7 @@
     </row>
     <row r="258" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>4</v>
@@ -4114,7 +4108,7 @@
         <v>23080426</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D259" s="1">
         <v>2019</v>
@@ -4128,7 +4122,7 @@
         <v>23080426</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D260" s="1">
         <v>2018</v>
@@ -4142,7 +4136,7 @@
         <v>23080426</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D261" s="1">
         <v>2017</v>
@@ -4156,7 +4150,7 @@
         <v>23080426</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D262" s="1">
         <v>2023</v>
@@ -4170,7 +4164,7 @@
         <v>23080426</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D263" s="1">
         <v>2013</v>
@@ -4184,7 +4178,7 @@
         <v>23080426</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D264" s="1">
         <v>2022</v>
@@ -4198,7 +4192,7 @@
         <v>23080426</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D265" s="1">
         <v>2014</v>
@@ -4212,7 +4206,7 @@
         <v>23080426</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D266" s="1">
         <v>2024</v>
@@ -4226,7 +4220,7 @@
         <v>23274514</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D267" s="1">
         <v>2018</v>
@@ -4240,7 +4234,7 @@
         <v>23274514</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D268" s="1">
         <v>2024</v>
@@ -4254,7 +4248,7 @@
         <v>23274514</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D269" s="1">
         <v>2017</v>
@@ -4268,7 +4262,7 @@
         <v>23274514</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D270" s="1">
         <v>2019</v>
@@ -4282,7 +4276,7 @@
         <v>23274514</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D271" s="1">
         <v>2016</v>
@@ -4296,7 +4290,7 @@
         <v>23274514</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D272" s="1">
         <v>2022</v>
@@ -4310,7 +4304,7 @@
         <v>23274514</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D273" s="1">
         <v>2013</v>
@@ -4324,7 +4318,7 @@
         <v>23274514</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D274" s="1">
         <v>2009</v>
@@ -4338,7 +4332,7 @@
         <v>23274514</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D275" s="1">
         <v>2023</v>
@@ -4352,7 +4346,7 @@
         <v>23274514</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D276" s="1">
         <v>2010</v>
@@ -4366,7 +4360,7 @@
         <v>23274514</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D277" s="1">
         <v>2014</v>
@@ -4380,7 +4374,7 @@
         <v>23274514</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D278" s="1">
         <v>2015</v>
@@ -4394,7 +4388,7 @@
         <v>23274514</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D279" s="1">
         <v>2008</v>
@@ -4408,7 +4402,7 @@
         <v>23234563</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D280" s="1">
         <v>2019</v>
@@ -4422,7 +4416,7 @@
         <v>23234563</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D281" s="1">
         <v>2017</v>
@@ -4436,7 +4430,7 @@
         <v>23234563</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D282" s="1">
         <v>2016</v>
@@ -4450,7 +4444,7 @@
         <v>23234563</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D283" s="1">
         <v>2018</v>
@@ -4464,7 +4458,7 @@
         <v>23234563</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D284" s="1">
         <v>2013</v>
@@ -4478,7 +4472,7 @@
         <v>23234563</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D285" s="1">
         <v>2023</v>
@@ -4492,7 +4486,7 @@
         <v>23234563</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D286" s="1">
         <v>2010</v>
@@ -4506,7 +4500,7 @@
         <v>23234563</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D287" s="1">
         <v>2008</v>
@@ -4520,7 +4514,7 @@
         <v>23234563</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D288" s="1">
         <v>2015</v>
@@ -4534,7 +4528,7 @@
         <v>23234563</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D289" s="1">
         <v>2022</v>
@@ -4548,7 +4542,7 @@
         <v>23234563</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D290" s="1">
         <v>2014</v>
@@ -4562,7 +4556,7 @@
         <v>23234563</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D291" s="1">
         <v>2024</v>
@@ -4576,7 +4570,7 @@
         <v>23223928</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D292" s="1">
         <v>2024</v>
@@ -4590,7 +4584,7 @@
         <v>23223928</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D293" s="1">
         <v>2018</v>
@@ -4604,7 +4598,7 @@
         <v>23223928</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D294" s="1">
         <v>2019</v>
@@ -4618,7 +4612,7 @@
         <v>23223928</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D295" s="1">
         <v>2008</v>
@@ -4632,7 +4626,7 @@
         <v>23223928</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D296" s="1">
         <v>2017</v>
@@ -4646,7 +4640,7 @@
         <v>23223928</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D297" s="1">
         <v>2010</v>
@@ -4660,7 +4654,7 @@
         <v>23223928</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D298" s="1">
         <v>2009</v>
@@ -4674,7 +4668,7 @@
         <v>23223928</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D299" s="1">
         <v>2023</v>
@@ -4688,7 +4682,7 @@
         <v>23223928</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D300" s="1">
         <v>2015</v>
@@ -4702,7 +4696,7 @@
         <v>23223928</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D301" s="1">
         <v>2013</v>
@@ -4716,7 +4710,7 @@
         <v>23223928</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D302" s="1">
         <v>2022</v>
@@ -4730,7 +4724,7 @@
         <v>23223928</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D303" s="1">
         <v>2014</v>
@@ -4744,7 +4738,7 @@
         <v>23080680</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D304" s="1">
         <v>2009</v>
@@ -4758,7 +4752,7 @@
         <v>23080680</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D305" s="1">
         <v>2010</v>
@@ -4772,7 +4766,7 @@
         <v>23080680</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D306" s="1">
         <v>2008</v>
@@ -4786,7 +4780,7 @@
         <v>23197358</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D307" s="1">
         <v>2016</v>
@@ -4800,7 +4794,7 @@
         <v>23197358</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D308" s="1">
         <v>2010</v>
@@ -4814,7 +4808,7 @@
         <v>23197358</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D309" s="1">
         <v>2008</v>
@@ -4828,7 +4822,7 @@
         <v>23197358</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D310" s="1">
         <v>2015</v>
@@ -4842,7 +4836,7 @@
         <v>23197358</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D311" s="1">
         <v>2024</v>
@@ -4856,7 +4850,7 @@
         <v>23197358</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D312" s="1">
         <v>2009</v>
@@ -4870,7 +4864,7 @@
         <v>23197358</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D313" s="1">
         <v>2023</v>
@@ -4884,7 +4878,7 @@
         <v>23197358</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D314" s="1">
         <v>2019</v>
@@ -4898,7 +4892,7 @@
         <v>23197358</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D315" s="1">
         <v>2018</v>
@@ -4912,7 +4906,7 @@
         <v>23197358</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D316" s="1">
         <v>2013</v>
@@ -4926,7 +4920,7 @@
         <v>23197358</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D317" s="1">
         <v>2022</v>
@@ -4940,7 +4934,7 @@
         <v>23197358</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D318" s="1">
         <v>2017</v>
@@ -4954,7 +4948,7 @@
         <v>23197358</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D319" s="1">
         <v>2014</v>
@@ -4968,7 +4962,7 @@
         <v>23206187</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D320" s="1">
         <v>2024</v>
@@ -4982,7 +4976,7 @@
         <v>23206187</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D321" s="1">
         <v>2016</v>
@@ -4996,7 +4990,7 @@
         <v>23206187</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D322" s="1">
         <v>2019</v>
@@ -5010,7 +5004,7 @@
         <v>23206187</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D323" s="1">
         <v>2010</v>
@@ -5024,7 +5018,7 @@
         <v>23206187</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D324" s="1">
         <v>2018</v>
@@ -5038,7 +5032,7 @@
         <v>23206187</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D325" s="1">
         <v>2017</v>
@@ -5052,7 +5046,7 @@
         <v>23206187</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D326" s="1">
         <v>2023</v>
@@ -5066,7 +5060,7 @@
         <v>23206187</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D327" s="1">
         <v>2014</v>
@@ -5080,7 +5074,7 @@
         <v>23206187</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D328" s="1">
         <v>2022</v>
@@ -5094,7 +5088,7 @@
         <v>23206187</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D329" s="1">
         <v>2013</v>
@@ -5108,7 +5102,7 @@
         <v>23206187</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D330" s="1">
         <v>2008</v>
@@ -5220,7 +5214,7 @@
         <v>23080647</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D338" s="1">
         <v>2024</v>
@@ -5234,7 +5228,7 @@
         <v>23080124</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D339" s="1">
         <v>2009</v>
@@ -5248,7 +5242,7 @@
         <v>23080124</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D340" s="1">
         <v>2008</v>
@@ -5262,7 +5256,7 @@
         <v>23080663</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D341" s="1">
         <v>2024</v>
@@ -5276,7 +5270,7 @@
         <v>23080663</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D342" s="1">
         <v>2017</v>
@@ -5290,7 +5284,7 @@
         <v>23080663</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D343" s="1">
         <v>2018</v>
@@ -5304,7 +5298,7 @@
         <v>23080663</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D344" s="1">
         <v>2019</v>
@@ -5318,7 +5312,7 @@
         <v>23080663</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D345" s="1">
         <v>2013</v>
@@ -5332,7 +5326,7 @@
         <v>23080663</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D346" s="1">
         <v>2009</v>
@@ -5346,7 +5340,7 @@
         <v>23080663</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D347" s="1">
         <v>2010</v>
@@ -5360,7 +5354,7 @@
         <v>23080663</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D348" s="1">
         <v>2023</v>
@@ -5374,7 +5368,7 @@
         <v>23080663</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D349" s="1">
         <v>2015</v>
@@ -5388,7 +5382,7 @@
         <v>23080663</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D350" s="1">
         <v>2008</v>
@@ -5402,7 +5396,7 @@
         <v>23080663</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D351" s="1">
         <v>2022</v>
@@ -5416,7 +5410,7 @@
         <v>23080663</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D352" s="1">
         <v>2014</v>
@@ -5430,7 +5424,7 @@
         <v>23080663</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D353" s="1">
         <v>2024</v>
@@ -5444,7 +5438,7 @@
         <v>23080590</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D354" s="1">
         <v>2016</v>
@@ -5458,7 +5452,7 @@
         <v>23080590</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D355" s="1">
         <v>2023</v>
@@ -5472,7 +5466,7 @@
         <v>23080590</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D356" s="1">
         <v>2019</v>
@@ -5486,7 +5480,7 @@
         <v>23080590</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D357" s="1">
         <v>2024</v>
@@ -5500,7 +5494,7 @@
         <v>23080590</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D358" s="1">
         <v>2022</v>
@@ -5514,7 +5508,7 @@
         <v>23080590</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D359" s="1">
         <v>2018</v>
@@ -5528,7 +5522,7 @@
         <v>23080590</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D360" s="1">
         <v>2013</v>
@@ -5542,7 +5536,7 @@
         <v>23080590</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D361" s="1">
         <v>2017</v>
@@ -5556,7 +5550,7 @@
         <v>23080590</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D362" s="1">
         <v>2014</v>
@@ -5570,7 +5564,7 @@
         <v>23080590</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D363" s="1">
         <v>2015</v>
@@ -5584,7 +5578,7 @@
         <v>23080590</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D364" s="1">
         <v>2010</v>
@@ -5598,7 +5592,7 @@
         <v>23080590</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D365" s="1">
         <v>2008</v>
@@ -5612,7 +5606,7 @@
         <v>23080590</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D366" s="1">
         <v>2024</v>
@@ -5626,7 +5620,7 @@
         <v>23080590</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D367" s="1">
         <v>2019</v>
@@ -5640,7 +5634,7 @@
         <v>23080590</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D368" s="1">
         <v>2014</v>
@@ -5654,7 +5648,7 @@
         <v>23080590</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D369" s="1">
         <v>2010</v>
@@ -5668,7 +5662,7 @@
         <v>23080590</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D370" s="1">
         <v>2023</v>
@@ -5682,7 +5676,7 @@
         <v>23080590</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D371" s="1">
         <v>2022</v>
@@ -5696,7 +5690,7 @@
         <v>23080590</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D372" s="1">
         <v>2018</v>
@@ -5710,7 +5704,7 @@
         <v>23080590</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D373" s="1">
         <v>2017</v>
@@ -5724,7 +5718,7 @@
         <v>23080590</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D374" s="1">
         <v>2008</v>
@@ -5738,7 +5732,7 @@
         <v>23080590</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D375" s="1">
         <v>2013</v>
@@ -5752,7 +5746,7 @@
         <v>23080590</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D376" s="1">
         <v>2009</v>
@@ -5766,7 +5760,7 @@
         <v>23197145</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D377" s="1">
         <v>2018</v>
@@ -5780,7 +5774,7 @@
         <v>23197145</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D378" s="1">
         <v>2010</v>
@@ -5794,7 +5788,7 @@
         <v>23197145</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D379" s="1">
         <v>2017</v>
@@ -5808,7 +5802,7 @@
         <v>23197145</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" s="1">
         <v>2019</v>
@@ -5822,7 +5816,7 @@
         <v>23197145</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D381" s="1">
         <v>2023</v>
@@ -5836,7 +5830,7 @@
         <v>23197145</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D382" s="1">
         <v>2022</v>
@@ -5850,7 +5844,7 @@
         <v>23197145</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D383" s="1">
         <v>2008</v>
@@ -5864,7 +5858,7 @@
         <v>23197145</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D384" s="1">
         <v>2009</v>
@@ -5878,7 +5872,7 @@
         <v>23197145</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D385" s="1">
         <v>2014</v>
@@ -5892,7 +5886,7 @@
         <v>23197145</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D386" s="1">
         <v>2024</v>
@@ -5906,7 +5900,7 @@
         <v>23080728</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D387" s="1">
         <v>2019</v>
@@ -5920,7 +5914,7 @@
         <v>23080728</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D388" s="1">
         <v>2016</v>
@@ -5934,7 +5928,7 @@
         <v>23080728</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D389" s="1">
         <v>2024</v>
@@ -5948,7 +5942,7 @@
         <v>23080728</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D390" s="1">
         <v>2017</v>
@@ -5962,7 +5956,7 @@
         <v>23080728</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D391" s="1">
         <v>2013</v>
@@ -5976,7 +5970,7 @@
         <v>23080728</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D392" s="1">
         <v>2022</v>
@@ -5990,7 +5984,7 @@
         <v>23080728</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D393" s="1">
         <v>2018</v>
@@ -6004,7 +5998,7 @@
         <v>23080728</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D394" s="1">
         <v>2023</v>
@@ -6018,7 +6012,7 @@
         <v>23080728</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D395" s="1">
         <v>2014</v>
@@ -6032,7 +6026,7 @@
         <v>23080728</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D396" s="1">
         <v>2008</v>
@@ -6046,7 +6040,7 @@
         <v>23206152</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D397" s="1">
         <v>2008</v>
@@ -6060,7 +6054,7 @@
         <v>23206152</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D398" s="1">
         <v>2010</v>
@@ -6074,7 +6068,7 @@
         <v>23206152</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D399" s="1">
         <v>2009</v>
@@ -6088,7 +6082,7 @@
         <v>23206152</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D400" s="1">
         <v>2013</v>
@@ -6102,7 +6096,7 @@
         <v>23270918</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D401" s="1">
         <v>2018</v>
@@ -6116,7 +6110,7 @@
         <v>23270918</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D402" s="1">
         <v>2008</v>
@@ -6130,7 +6124,7 @@
         <v>23270918</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D403" s="1">
         <v>2009</v>
@@ -6144,7 +6138,7 @@
         <v>23270918</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D404" s="1">
         <v>2017</v>
@@ -6156,7 +6150,7 @@
     <row r="405" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B405" s="1"/>
       <c r="C405" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D405" s="1">
         <v>2010</v>
@@ -6168,7 +6162,7 @@
     <row r="406" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B406" s="1"/>
       <c r="C406" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D406" s="1">
         <v>2008</v>
@@ -6180,7 +6174,7 @@
     <row r="407" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B407" s="1"/>
       <c r="C407" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D407" s="1">
         <v>2013</v>
@@ -6194,7 +6188,7 @@
         <v>23080949</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D408" s="1">
         <v>2019</v>
@@ -6208,7 +6202,7 @@
         <v>23080949</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D409" s="1">
         <v>2016</v>
@@ -6222,7 +6216,7 @@
         <v>23080949</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D410" s="1">
         <v>2018</v>
@@ -6236,7 +6230,7 @@
         <v>23080949</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D411" s="1">
         <v>2023</v>
@@ -6250,7 +6244,7 @@
         <v>23080949</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D412" s="1">
         <v>2024</v>
@@ -6264,7 +6258,7 @@
         <v>23080949</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D413" s="1">
         <v>2017</v>
@@ -6278,7 +6272,7 @@
         <v>23080949</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D414" s="1">
         <v>2015</v>
@@ -6292,7 +6286,7 @@
         <v>23080949</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D415" s="1">
         <v>2022</v>
@@ -6306,7 +6300,7 @@
         <v>23080949</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D416" s="1">
         <v>2013</v>
@@ -6320,7 +6314,7 @@
         <v>23080949</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D417" s="1">
         <v>2010</v>
@@ -6334,7 +6328,7 @@
         <v>23080949</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D418" s="1">
         <v>2008</v>
@@ -6348,7 +6342,7 @@
         <v>23080949</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D419" s="1">
         <v>2014</v>
@@ -6362,7 +6356,7 @@
         <v>23197218</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D420" s="1">
         <v>2024</v>
@@ -6376,7 +6370,7 @@
         <v>23197218</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D421" s="1">
         <v>2019</v>
@@ -6390,7 +6384,7 @@
         <v>23197218</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D422" s="1">
         <v>2018</v>
@@ -6404,7 +6398,7 @@
         <v>23197218</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D423" s="1">
         <v>2023</v>
@@ -6418,7 +6412,7 @@
         <v>23197218</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D424" s="1">
         <v>2008</v>
@@ -6432,7 +6426,7 @@
         <v>23197218</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D425" s="1">
         <v>2009</v>
@@ -6446,7 +6440,7 @@
         <v>23197218</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D426" s="1">
         <v>2014</v>
@@ -6460,7 +6454,7 @@
         <v>23197218</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D427" s="1">
         <v>2013</v>
@@ -6474,7 +6468,7 @@
         <v>23197218</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D428" s="1">
         <v>2010</v>
@@ -6488,7 +6482,7 @@
         <v>23197218</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D429" s="1">
         <v>2022</v>
@@ -6502,7 +6496,7 @@
         <v>23197218</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D430" s="1">
         <v>2017</v>
@@ -6516,7 +6510,7 @@
         <v>23197218</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D431" s="1">
         <v>2015</v>
@@ -6530,7 +6524,7 @@
         <v>23080957</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D432" s="1">
         <v>2016</v>
@@ -6544,7 +6538,7 @@
         <v>23080957</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D433" s="1">
         <v>2013</v>
@@ -6558,7 +6552,7 @@
         <v>23080957</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D434" s="1">
         <v>2014</v>
@@ -6572,7 +6566,7 @@
         <v>23080957</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D435" s="1">
         <v>2017</v>
@@ -6586,7 +6580,7 @@
         <v>23080957</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D436" s="1">
         <v>2010</v>
@@ -6600,7 +6594,7 @@
         <v>23080957</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D437" s="1">
         <v>2015</v>
@@ -6614,7 +6608,7 @@
         <v>23080957</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D438" s="1">
         <v>2008</v>
@@ -6628,7 +6622,7 @@
         <v>2307650</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D439" s="1">
         <v>2008</v>
@@ -6642,7 +6636,7 @@
         <v>2307650</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D440" s="1">
         <v>2009</v>
@@ -6656,7 +6650,7 @@
         <v>2307650</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D441" s="1">
         <v>2010</v>
@@ -6670,7 +6664,7 @@
         <v>2307650</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D442" s="1">
         <v>2011</v>
@@ -6684,7 +6678,7 @@
         <v>2307650</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D443" s="1">
         <v>2012</v>
@@ -6698,7 +6692,7 @@
         <v>2307650</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D444" s="1">
         <v>2013</v>
@@ -6712,7 +6706,7 @@
         <v>2307650</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D445" s="1">
         <v>2014</v>
@@ -6726,7 +6720,7 @@
         <v>2307650</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D446" s="1">
         <v>2015</v>
@@ -6740,7 +6734,7 @@
         <v>2307650</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D447" s="1">
         <v>2016</v>
@@ -6754,7 +6748,7 @@
         <v>2307650</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D448" s="1">
         <v>2017</v>
@@ -6768,7 +6762,7 @@
         <v>2307650</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D449" s="1">
         <v>2018</v>
@@ -6782,7 +6776,7 @@
         <v>2307650</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D450" s="1">
         <v>2019</v>
@@ -6796,7 +6790,7 @@
         <v>2307650</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D451" s="1">
         <v>2022</v>
@@ -6810,7 +6804,7 @@
         <v>2307650</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D452" s="1">
         <v>2023</v>
@@ -6824,7 +6818,7 @@
         <v>2307650</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D453" s="1">
         <v>2024</v>
@@ -6838,7 +6832,7 @@
         <v>23271019</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D454" s="1">
         <v>2010</v>
@@ -6852,7 +6846,7 @@
         <v>23271019</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D455" s="1">
         <v>2013</v>
@@ -6866,7 +6860,7 @@
         <v>23271019</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D456" s="1">
         <v>2009</v>
@@ -6880,7 +6874,7 @@
         <v>23271019</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D457" s="1">
         <v>2008</v>
@@ -6894,7 +6888,7 @@
         <v>23271019</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D458" s="1">
         <v>2014</v>
@@ -6908,7 +6902,7 @@
         <v>23176962</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D459" s="1">
         <v>2024</v>
@@ -6922,7 +6916,7 @@
         <v>23176962</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D460" s="1">
         <v>2023</v>
@@ -6936,7 +6930,7 @@
         <v>23176962</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D461" s="1">
         <v>2022</v>
@@ -6950,7 +6944,7 @@
         <v>23270950</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D462" s="1">
         <v>2024</v>
@@ -6964,7 +6958,7 @@
         <v>23270950</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D463" s="1">
         <v>2016</v>
@@ -6978,7 +6972,7 @@
         <v>23270950</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D464" s="1">
         <v>2015</v>
@@ -6992,7 +6986,7 @@
         <v>23270950</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D465" s="1">
         <v>2018</v>
@@ -7006,7 +7000,7 @@
         <v>23270950</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D466" s="1">
         <v>2017</v>
@@ -7020,7 +7014,7 @@
         <v>23270950</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D467" s="1">
         <v>2009</v>
@@ -7034,7 +7028,7 @@
         <v>23270950</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D468" s="1">
         <v>2019</v>
@@ -7048,7 +7042,7 @@
         <v>23270950</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D469" s="1">
         <v>2013</v>
@@ -7062,7 +7056,7 @@
         <v>23270950</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D470" s="1">
         <v>2023</v>
@@ -7076,7 +7070,7 @@
         <v>23270950</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D471" s="1">
         <v>2014</v>
@@ -7090,7 +7084,7 @@
         <v>23270950</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D472" s="1">
         <v>2010</v>
@@ -7104,7 +7098,7 @@
         <v>23270950</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D473" s="1">
         <v>2008</v>
@@ -7118,7 +7112,7 @@
         <v>23270950</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D474" s="1">
         <v>2022</v>
@@ -7132,7 +7126,7 @@
         <v>23461993</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D475" s="1">
         <v>2010</v>
@@ -7146,7 +7140,7 @@
         <v>23461993</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D476" s="1">
         <v>2018</v>
@@ -7160,7 +7154,7 @@
         <v>23461993</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D477" s="1">
         <v>2016</v>
@@ -7174,7 +7168,7 @@
         <v>23461993</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D478" s="1">
         <v>2013</v>
@@ -7188,7 +7182,7 @@
         <v>23461993</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D479" s="1">
         <v>2019</v>
@@ -7202,7 +7196,7 @@
         <v>23461993</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D480" s="1">
         <v>2017</v>
@@ -7216,7 +7210,7 @@
         <v>23461993</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D481" s="1">
         <v>2014</v>
@@ -7230,7 +7224,7 @@
         <v>23461993</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D482" s="1">
         <v>2015</v>
@@ -7244,7 +7238,7 @@
         <v>23564105</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D483" s="1">
         <v>2019</v>
@@ -7258,7 +7252,7 @@
         <v>23564105</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D484" s="1">
         <v>2018</v>
@@ -7272,7 +7266,7 @@
         <v>23564105</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D485" s="1">
         <v>2013</v>
@@ -7286,7 +7280,7 @@
         <v>23564105</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D486" s="1">
         <v>2023</v>
@@ -7300,7 +7294,7 @@
         <v>23564105</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D487" s="1">
         <v>2017</v>
@@ -7314,7 +7308,7 @@
         <v>23564105</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D488" s="1">
         <v>2015</v>
@@ -7328,7 +7322,7 @@
         <v>23564105</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D489" s="1">
         <v>2022</v>
@@ -7342,7 +7336,7 @@
         <v>23564105</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D490" s="1">
         <v>2014</v>
@@ -7356,7 +7350,7 @@
         <v>23564105</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D491" s="1">
         <v>2024</v>
@@ -7370,7 +7364,7 @@
         <v>23270896</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D492" s="1">
         <v>2024</v>
@@ -7384,7 +7378,7 @@
         <v>23270896</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D493" s="1">
         <v>2018</v>
@@ -7398,7 +7392,7 @@
         <v>23270896</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D494" s="1">
         <v>2019</v>
@@ -7412,7 +7406,7 @@
         <v>23270896</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D495" s="1">
         <v>2017</v>
@@ -7426,7 +7420,7 @@
         <v>23270896</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D496" s="1">
         <v>2023</v>
@@ -7440,7 +7434,7 @@
         <v>23270896</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D497" s="1">
         <v>2013</v>
@@ -7454,7 +7448,7 @@
         <v>23270896</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D498" s="1">
         <v>2009</v>
@@ -7468,7 +7462,7 @@
         <v>23270896</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D499" s="1">
         <v>2022</v>
@@ -7482,7 +7476,7 @@
         <v>23270896</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D500" s="1">
         <v>2008</v>
@@ -7496,7 +7490,7 @@
         <v>23270896</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D501" s="1">
         <v>2014</v>
@@ -7510,7 +7504,7 @@
         <v>23270896</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D502" s="1">
         <v>2010</v>
@@ -7524,7 +7518,7 @@
         <v>23271027</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D503" s="1">
         <v>2010</v>
@@ -7538,7 +7532,7 @@
         <v>23271027</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D504" s="1">
         <v>2013</v>
@@ -7552,7 +7546,7 @@
         <v>23271027</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D505" s="1">
         <v>2009</v>
@@ -7566,7 +7560,7 @@
         <v>23271027</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D506" s="1">
         <v>2008</v>
@@ -7580,7 +7574,7 @@
         <v>23330015</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D507" s="1">
         <v>2013</v>
@@ -7594,7 +7588,7 @@
         <v>23330015</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D508" s="1">
         <v>2017</v>
@@ -7608,7 +7602,7 @@
         <v>23330015</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D509" s="1">
         <v>2018</v>
@@ -7622,7 +7616,7 @@
         <v>23330015</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D510" s="1">
         <v>2016</v>
@@ -7636,7 +7630,7 @@
         <v>23330015</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D511" s="1">
         <v>2014</v>
@@ -7650,7 +7644,7 @@
         <v>23330015</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D512" s="1">
         <v>2010</v>
@@ -7664,7 +7658,7 @@
         <v>23330015</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D513" s="1">
         <v>2009</v>
@@ -7678,7 +7672,7 @@
         <v>23225394</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D514" s="1">
         <v>2019</v>
@@ -7692,7 +7686,7 @@
         <v>23225394</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D515" s="1">
         <v>2023</v>
@@ -7706,7 +7700,7 @@
         <v>23225394</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D516" s="1">
         <v>2015</v>
@@ -7720,7 +7714,7 @@
         <v>23225394</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D517" s="1">
         <v>2010</v>
@@ -7734,7 +7728,7 @@
         <v>23225394</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D518" s="1">
         <v>2017</v>
@@ -7748,7 +7742,7 @@
         <v>23225394</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D519" s="1">
         <v>2018</v>
@@ -7762,7 +7756,7 @@
         <v>23225394</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D520" s="1">
         <v>2008</v>
@@ -7776,7 +7770,7 @@
         <v>23225394</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D521" s="1">
         <v>2013</v>
@@ -7790,7 +7784,7 @@
         <v>23225394</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D522" s="1">
         <v>2022</v>
@@ -7804,7 +7798,7 @@
         <v>23225394</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D523" s="1">
         <v>2014</v>
@@ -7818,7 +7812,7 @@
         <v>23225394</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D524" s="1">
         <v>2024</v>
@@ -7832,7 +7826,7 @@
         <v>23213140</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D525" s="1">
         <v>2010</v>
@@ -7846,7 +7840,7 @@
         <v>23213140</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D526" s="1">
         <v>2008</v>
@@ -7860,7 +7854,7 @@
         <v>23213140</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D527" s="1">
         <v>2009</v>
@@ -7874,7 +7868,7 @@
         <v>23251255</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D528" s="1">
         <v>2016</v>
@@ -7888,7 +7882,7 @@
         <v>23251255</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D529" s="1">
         <v>2019</v>
@@ -7902,7 +7896,7 @@
         <v>23251255</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D530" s="1">
         <v>2018</v>
@@ -7916,7 +7910,7 @@
         <v>23251255</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D531" s="1">
         <v>2017</v>
@@ -7930,7 +7924,7 @@
         <v>23251255</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D532" s="1">
         <v>2015</v>
@@ -7944,7 +7938,7 @@
         <v>23251255</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D533" s="1">
         <v>2014</v>
@@ -7958,7 +7952,7 @@
         <v>23242655</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D534" s="1">
         <v>2024</v>
@@ -7972,7 +7966,7 @@
         <v>23242655</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D535" s="1">
         <v>2015</v>
@@ -7986,7 +7980,7 @@
         <v>23242655</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D536" s="1">
         <v>2018</v>
@@ -8000,7 +7994,7 @@
         <v>23242655</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D537" s="1">
         <v>2016</v>
@@ -8014,7 +8008,7 @@
         <v>23242655</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D538" s="1">
         <v>2019</v>
@@ -8028,7 +8022,7 @@
         <v>23242655</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D539" s="1">
         <v>2013</v>
@@ -8042,7 +8036,7 @@
         <v>23242655</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D540" s="1">
         <v>2017</v>
@@ -8056,7 +8050,7 @@
         <v>23242655</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D541" s="1">
         <v>2023</v>
@@ -8070,7 +8064,7 @@
         <v>23242655</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D542" s="1">
         <v>2009</v>
@@ -8084,7 +8078,7 @@
         <v>23242655</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D543" s="1">
         <v>2014</v>
@@ -8098,7 +8092,7 @@
         <v>23242655</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D544" s="1">
         <v>2008</v>
@@ -8112,7 +8106,7 @@
         <v>23242655</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D545" s="1">
         <v>2022</v>
@@ -8126,7 +8120,7 @@
         <v>23242655</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D546" s="1">
         <v>2010</v>
@@ -8140,7 +8134,7 @@
         <v>23242655</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D547" s="1">
         <v>2019</v>
@@ -8154,7 +8148,7 @@
         <v>23242655</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D548" s="1">
         <v>2016</v>
@@ -8168,7 +8162,7 @@
         <v>23242655</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D549" s="1">
         <v>2024</v>
@@ -8182,7 +8176,7 @@
         <v>23242655</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D550" s="1">
         <v>2023</v>
@@ -8196,7 +8190,7 @@
         <v>23242655</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D551" s="1">
         <v>2017</v>
@@ -8210,7 +8204,7 @@
         <v>23242655</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D552" s="1">
         <v>2015</v>
@@ -8224,7 +8218,7 @@
         <v>23242655</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D553" s="1">
         <v>2008</v>
@@ -8238,7 +8232,7 @@
         <v>23242655</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D554" s="1">
         <v>2022</v>
@@ -8252,7 +8246,7 @@
         <v>23242655</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D555" s="1">
         <v>2018</v>
@@ -8266,7 +8260,7 @@
         <v>23242655</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D556" s="1">
         <v>2010</v>
@@ -8280,7 +8274,7 @@
         <v>23242655</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D557" s="1">
         <v>2013</v>
@@ -8294,7 +8288,7 @@
         <v>23242655</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D558" s="1">
         <v>2014</v>
@@ -8308,7 +8302,7 @@
         <v>23270934</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D559" s="1">
         <v>2017</v>
@@ -8322,7 +8316,7 @@
         <v>23270934</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D560" s="1">
         <v>2018</v>
@@ -8336,7 +8330,7 @@
         <v>23270934</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D561" s="1">
         <v>2019</v>
@@ -8350,7 +8344,7 @@
         <v>23270934</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D562" s="1">
         <v>2016</v>
@@ -8364,7 +8358,7 @@
         <v>23270934</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D563" s="1">
         <v>2024</v>
@@ -8378,7 +8372,7 @@
         <v>23270934</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D564" s="1">
         <v>2013</v>
@@ -8392,7 +8386,7 @@
         <v>23270934</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D565" s="1">
         <v>2015</v>
@@ -8406,7 +8400,7 @@
         <v>23270934</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D566" s="1">
         <v>2023</v>
@@ -8420,7 +8414,7 @@
         <v>23270934</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D567" s="1">
         <v>2010</v>
@@ -8434,7 +8428,7 @@
         <v>23270934</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D568" s="1">
         <v>2008</v>
@@ -8448,7 +8442,7 @@
         <v>23270934</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D569" s="1">
         <v>2022</v>
@@ -8462,7 +8456,7 @@
         <v>23270934</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D570" s="1">
         <v>2009</v>
@@ -8476,7 +8470,7 @@
         <v>23270934</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D571" s="1">
         <v>2014</v>
@@ -8490,7 +8484,7 @@
         <v>23081201</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D572" s="1">
         <v>2013</v>
@@ -8504,7 +8498,7 @@
         <v>23081201</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D573" s="1">
         <v>2024</v>
@@ -8518,7 +8512,7 @@
         <v>23081201</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D574" s="1">
         <v>2017</v>
@@ -8532,7 +8526,7 @@
         <v>23081201</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D575" s="1">
         <v>2019</v>
@@ -8546,7 +8540,7 @@
         <v>23081201</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D576" s="1">
         <v>2022</v>
@@ -8560,7 +8554,7 @@
         <v>23081201</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D577" s="1">
         <v>2009</v>
@@ -8574,7 +8568,7 @@
         <v>23081201</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D578" s="1">
         <v>2018</v>
@@ -8588,7 +8582,7 @@
         <v>23081201</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D579" s="1">
         <v>2023</v>
@@ -8602,7 +8596,7 @@
         <v>23081201</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D580" s="1">
         <v>2008</v>
@@ -8616,7 +8610,7 @@
         <v>23081201</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D581" s="1">
         <v>2014</v>
@@ -8630,7 +8624,7 @@
         <v>23270969</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D582" s="1">
         <v>2024</v>
@@ -8644,7 +8638,7 @@
         <v>23270969</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D583" s="1">
         <v>2018</v>
@@ -8658,7 +8652,7 @@
         <v>23270969</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D584" s="1">
         <v>2016</v>
@@ -8672,7 +8666,7 @@
         <v>23270969</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D585" s="1">
         <v>2019</v>
@@ -8686,7 +8680,7 @@
         <v>23270969</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D586" s="1">
         <v>2017</v>
@@ -8700,7 +8694,7 @@
         <v>23270969</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D587" s="1">
         <v>2013</v>
@@ -8714,7 +8708,7 @@
         <v>23270969</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D588" s="1">
         <v>2023</v>
@@ -8728,7 +8722,7 @@
         <v>23270969</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D589" s="1">
         <v>2022</v>
@@ -8742,7 +8736,7 @@
         <v>23270969</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D590" s="1">
         <v>2015</v>
@@ -8756,7 +8750,7 @@
         <v>23270969</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D591" s="1">
         <v>2008</v>
@@ -8770,7 +8764,7 @@
         <v>23270969</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D592" s="1">
         <v>2014</v>
@@ -8784,7 +8778,7 @@
         <v>23270969</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D593" s="1">
         <v>2010</v>
@@ -8798,7 +8792,7 @@
         <v>23329815</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D594" s="1">
         <v>2024</v>
@@ -8812,7 +8806,7 @@
         <v>23329815</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D595" s="1">
         <v>2023</v>
@@ -8826,7 +8820,7 @@
         <v>23329815</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D596" s="1">
         <v>2010</v>
@@ -8840,7 +8834,7 @@
         <v>23329815</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D597" s="1">
         <v>2019</v>
@@ -8854,7 +8848,7 @@
         <v>23329815</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D598" s="1">
         <v>2018</v>
@@ -8868,7 +8862,7 @@
         <v>23329815</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D599" s="1">
         <v>2017</v>
@@ -8882,7 +8876,7 @@
         <v>23329815</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D600" s="1">
         <v>2008</v>
@@ -8896,7 +8890,7 @@
         <v>23329815</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D601" s="1">
         <v>2013</v>
@@ -8910,7 +8904,7 @@
         <v>23329815</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D602" s="1">
         <v>2009</v>
@@ -8924,7 +8918,7 @@
         <v>23329815</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D603" s="1">
         <v>2015</v>
@@ -8938,7 +8932,7 @@
         <v>23329815</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D604" s="1">
         <v>2022</v>
@@ -8952,7 +8946,7 @@
         <v>23329815</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D605" s="1">
         <v>2014</v>
@@ -8966,7 +8960,7 @@
         <v>23197269</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D606" s="1">
         <v>2013</v>
@@ -8980,7 +8974,7 @@
         <v>23079614</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D607" s="1">
         <v>2019</v>
@@ -8994,7 +8988,7 @@
         <v>23079614</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D608" s="1">
         <v>2009</v>
@@ -9008,7 +9002,7 @@
         <v>23079614</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D609" s="1">
         <v>2022</v>
@@ -9022,7 +9016,7 @@
         <v>23079614</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D610" s="1">
         <v>2023</v>
@@ -9036,7 +9030,7 @@
         <v>23079614</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D611" s="1">
         <v>2008</v>
@@ -9050,7 +9044,7 @@
         <v>23079614</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D612" s="1">
         <v>2010</v>
@@ -9064,7 +9058,7 @@
         <v>23079614</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D613" s="1">
         <v>2017</v>
@@ -9078,7 +9072,7 @@
         <v>23079614</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D614" s="1">
         <v>2018</v>
@@ -9092,7 +9086,7 @@
         <v>23079614</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D615" s="1">
         <v>2014</v>
@@ -9106,7 +9100,7 @@
         <v>23079614</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D616" s="1">
         <v>2013</v>
@@ -9120,7 +9114,7 @@
         <v>23079614</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D617" s="1">
         <v>2024</v>
@@ -9134,7 +9128,7 @@
         <v>23197170</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D618" s="1">
         <v>2013</v>
@@ -9148,7 +9142,7 @@
         <v>23197170</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D619" s="1">
         <v>2009</v>
@@ -9162,7 +9156,7 @@
         <v>23197170</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D620" s="1">
         <v>2008</v>
@@ -9176,7 +9170,7 @@
         <v>23197170</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D621" s="1">
         <v>2014</v>
@@ -9190,7 +9184,7 @@
         <v>23197170</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D622" s="1">
         <v>2010</v>
@@ -9204,7 +9198,7 @@
         <v>23279044</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D623" s="1">
         <v>2024</v>
@@ -9218,7 +9212,7 @@
         <v>23279045</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D624" s="1">
         <v>2023</v>
@@ -9232,7 +9226,7 @@
         <v>23197285</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D625" s="1">
         <v>2008</v>
@@ -9246,7 +9240,7 @@
         <v>23081473</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D626" s="1">
         <v>2024</v>
@@ -9260,7 +9254,7 @@
         <v>23081473</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D627" s="1">
         <v>2013</v>
@@ -9274,7 +9268,7 @@
         <v>23081473</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D628" s="1">
         <v>2010</v>
@@ -9288,7 +9282,7 @@
         <v>23081473</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D629" s="1">
         <v>2009</v>
@@ -9302,7 +9296,7 @@
         <v>23081473</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D630" s="1">
         <v>2014</v>
@@ -9316,7 +9310,7 @@
         <v>23081473</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D631" s="1">
         <v>2008</v>
@@ -9330,7 +9324,7 @@
         <v>23197137</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D632" s="1">
         <v>2010</v>
@@ -9344,7 +9338,7 @@
         <v>23197137</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D633" s="1">
         <v>2013</v>
@@ -9358,7 +9352,7 @@
         <v>23197137</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D634" s="1">
         <v>2009</v>
@@ -9372,7 +9366,7 @@
         <v>23232692</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D635" s="1">
         <v>2019</v>
@@ -9386,7 +9380,7 @@
         <v>23232692</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D636" s="1">
         <v>2018</v>
@@ -9400,7 +9394,7 @@
         <v>23232692</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D637" s="1">
         <v>2009</v>
@@ -9414,7 +9408,7 @@
         <v>23232692</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D638" s="1">
         <v>2008</v>
@@ -9428,7 +9422,7 @@
         <v>23232692</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D639" s="1">
         <v>2023</v>
@@ -9442,7 +9436,7 @@
         <v>23232692</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D640" s="1">
         <v>2013</v>
@@ -9456,7 +9450,7 @@
         <v>23232692</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D641" s="1">
         <v>2022</v>
@@ -9470,7 +9464,7 @@
         <v>23232692</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D642" s="1">
         <v>2017</v>
@@ -9484,7 +9478,7 @@
         <v>23232692</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D643" s="1">
         <v>2010</v>
@@ -9498,7 +9492,7 @@
         <v>23232692</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D644" s="1">
         <v>2014</v>
@@ -9512,7 +9506,7 @@
         <v>23232692</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D645" s="1">
         <v>2015</v>
@@ -9526,7 +9520,7 @@
         <v>23232692</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D646" s="1">
         <v>2024</v>
@@ -9540,7 +9534,7 @@
         <v>23223065</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D647" s="1">
         <v>2019</v>
@@ -9554,7 +9548,7 @@
         <v>23223065</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D648" s="1">
         <v>2018</v>
@@ -9568,7 +9562,7 @@
         <v>23223065</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D649" s="1">
         <v>2023</v>
@@ -9582,7 +9576,7 @@
         <v>23223065</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D650" s="1">
         <v>2013</v>
@@ -9596,7 +9590,7 @@
         <v>23223065</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D651" s="1">
         <v>2022</v>
@@ -9610,7 +9604,7 @@
         <v>23223065</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D652" s="1">
         <v>2017</v>
@@ -9624,7 +9618,7 @@
         <v>23223065</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D653" s="1">
         <v>2015</v>
@@ -9638,7 +9632,7 @@
         <v>23223065</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D654" s="1">
         <v>2014</v>
@@ -9652,7 +9646,7 @@
         <v>23223065</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D655" s="1">
         <v>2024</v>
@@ -9666,7 +9660,7 @@
         <v>23223065</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D656" s="1">
         <v>2009</v>
@@ -9680,7 +9674,7 @@
         <v>23223065</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D657" s="1">
         <v>2013</v>
@@ -9694,7 +9688,7 @@
         <v>23093720</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D658" s="1">
         <v>2010</v>
@@ -9708,7 +9702,7 @@
         <v>23093720</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D659" s="1">
         <v>2008</v>
@@ -9722,7 +9716,7 @@
         <v>23093720</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D660" s="1">
         <v>2014</v>
@@ -9732,7 +9726,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E645" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:E660" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E660">
     <sortCondition ref="C2:C660"/>
   </sortState>
